--- a/src/main/resources/61-microservice-recruit-master/pf-outside_attribute.xlsx
+++ b/src/main/resources/61-microservice-recruit-master/pf-outside_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="164">
   <si>
     <t>类名</t>
   </si>
@@ -492,7 +492,10 @@
     <t>com.stalary.pf.outside.controller.OutsideController</t>
   </si>
   <si>
-    <t>upload(javax.servlet.http.HttpServletRequest)</t>
+    <t>upload(javax.servlet.http.HttpServletRequest,org.springframework.web.multipart.MultipartFile)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,org.springframework.web.multipart.MultipartFile</t>
   </si>
   <si>
     <t>public</t>
@@ -2001,10 +2004,10 @@
         <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2015,13 +2018,13 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -2032,13 +2035,13 @@
         <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
